--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13320" windowHeight="8915"/>
+    <workbookView windowWidth="20265" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
   </si>
   <si>
     <t>Robot</t>
@@ -1089,19 +1092,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H12"/>
+  <dimension ref="C3:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6333333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3833333333333" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1333333333333" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1297,6 +1300,23 @@
       </c>
       <c r="H12" s="3">
         <v>10005</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1315,13 +1335,13 @@
       <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6333333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3833333333333" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1333333333333" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1396,10 +1416,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20265" windowHeight="11790"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,75 +15,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>外网端口</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>SceneType</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>OuterPort</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Realm</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Gate1</t>
+  </si>
+  <si>
+    <t>Gate2</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Map1</t>
+  </si>
+  <si>
+    <t>Map2</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
+  </si>
+  <si>
+    <t>UnitCache</t>
+  </si>
+  <si>
     <t>所属进程</t>
   </si>
   <si>
     <t>所属区</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>外网端口</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>SceneType</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>OuterPort</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Realm</t>
-  </si>
-  <si>
-    <t>Gate</t>
-  </si>
-  <si>
-    <t>Gate1</t>
-  </si>
-  <si>
-    <t>Gate2</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Map1</t>
-  </si>
-  <si>
-    <t>Map2</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>LoginCenter</t>
   </si>
   <si>
     <t>Robot</t>
@@ -1092,10 +1095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H13"/>
+  <dimension ref="C3:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1112,20 +1115,20 @@
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:8">
@@ -1133,39 +1136,39 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:8">
@@ -1179,10 +1182,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" s="5">
         <v>10002</v>
@@ -1199,10 +1202,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" s="5">
         <v>10003</v>
@@ -1219,10 +1222,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="H8" s="5">
         <v>10004</v>
@@ -1239,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" s="5"/>
     </row>
@@ -1257,10 +1260,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -1275,10 +1278,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -1293,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="3">
         <v>10005</v>
@@ -1313,10 +1316,27 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1350,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:8">
@@ -1370,39 +1390,39 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:8">
@@ -1416,10 +1436,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="20328" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>UnitCache</t>
+  </si>
+  <si>
+    <t>Game</t>
   </si>
   <si>
     <t>所属进程</t>
@@ -1095,19 +1098,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H14"/>
+  <dimension ref="C3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3833333333333" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1333333333333" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1337,6 +1340,23 @@
       </c>
       <c r="G14" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1355,13 +1375,13 @@
       <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3833333333333" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1333333333333" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1370,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>1</v>
@@ -1436,10 +1456,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5"/>
     </row>
